--- a/graph/211120_221221.xlsx
+++ b/graph/211120_221221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E448E4-9DE9-47B2-B699-F21CE80B59E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF5850F-0AFA-44B6-B2C1-188062A97AEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,9 +180,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -198,18 +203,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -338,9 +338,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -356,18 +361,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -511,9 +511,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -529,18 +534,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -651,9 +651,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,18 +674,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -821,12 +821,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -873,12 +870,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -886,10 +880,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>MDE (m)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -906,12 +900,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -938,12 +929,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -982,12 +970,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1013,6 +998,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139348687"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1049,12 +1035,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1089,7 +1072,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>
@@ -1139,9 +1126,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,18 +1149,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1300,9 +1287,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,18 +1310,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1489,12 +1476,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1539,12 +1523,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1552,7 +1533,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>MDE (m)</a:t>
                 </a:r>
               </a:p>
@@ -1571,12 +1552,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1603,12 +1581,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1645,12 +1620,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1685,7 +1657,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-TW"/>
     </a:p>
@@ -4845,7 +4821,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>289837</xdr:colOff>
+      <xdr:colOff>325837</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>153037</xdr:rowOff>
     </xdr:to>
@@ -5280,7 +5256,7 @@
   <dimension ref="D5:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/graph/211120_221221.xlsx
+++ b/graph/211120_221221.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF5850F-0AFA-44B6-B2C1-188062A97AEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C435C2B3-15BA-4873-AE78-047A6C7E8832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>HistLoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source domain (2021-11-20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target domain (2022-12-21)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,20 +182,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Source domain (2023-11-16)</c:v>
+                  <c:v>Source domain (2021-11-20)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -203,7 +206,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -219,7 +224,6 @@
                 <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -332,7 +336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Target domain (2023-11-17)</c:v>
+                  <c:v>Target domain (2022-12-21)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -361,7 +365,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -377,7 +383,6 @@
                 <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -482,7 +487,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -511,14 +515,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -534,7 +533,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -550,7 +551,6 @@
                 <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -674,7 +674,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -690,7 +692,6 @@
                 <a:endParaRPr lang="zh-TW"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -781,7 +782,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1120,20 +1121,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Source domain (2023-11-16)</c:v>
+                  <c:v>Source domain (2021-11-20)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="wdDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1145,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1281,7 +1279,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Target domain (2023-11-17)</c:v>
+                  <c:v>Target domain (2022-12-21)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1310,7 +1308,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5256,7 +5256,7 @@
   <dimension ref="D5:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5279,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O6" t="s">
         <v>1</v>
@@ -5422,10 +5422,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O23" t="s">
         <v>1</v>

--- a/graph/211120_221221.xlsx
+++ b/graph/211120_221221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiment\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C435C2B3-15BA-4873-AE78-047A6C7E8832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86971B23-0B4D-4138-B893-E8A7B7829874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,9 @@
   <si>
     <t>Target domain (2022-12-21)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FusionDANN</t>
   </si>
 </sst>
 </file>
@@ -279,7 +282,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -438,7 +441,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -606,7 +609,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -747,7 +750,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -1219,7 +1222,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -1382,7 +1385,7 @@
                   <c:v>AdapLoc</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Long et al.</c:v>
+                  <c:v>FusionDANN</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HistLoc</c:v>
@@ -5256,7 +5259,7 @@
   <dimension ref="D5:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5389,7 +5392,7 @@
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>85.8</v>
@@ -5532,7 +5535,7 @@
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>94.4</v>
